--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43022,6 +43022,41 @@
         <v>90029500</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>70547500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43057,6 +43057,41 @@
         <v>70547500</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>58480200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43092,6 +43092,41 @@
         <v>58480200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>84126600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43127,6 +43127,41 @@
         <v>84126600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>68122000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43162,6 +43162,41 @@
         <v>68122000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>139467300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43197,6 +43197,41 @@
         <v>139467300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>95562200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43232,6 +43232,41 @@
         <v>95562200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>37276200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43267,6 +43267,41 @@
         <v>37276200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>105852400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43302,6 +43302,41 @@
         <v>105852400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>15852500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,41 @@
         <v>15852500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>35629600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43372,6 +43372,41 @@
         <v>35629600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>55882800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43407,6 +43407,41 @@
         <v>55882800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43442,6 +43442,76 @@
         <v>10400000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>37747100</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>30995300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43512,6 +43512,76 @@
         <v>30995300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>12435300</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>32496400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43582,6 +43582,41 @@
         <v>32496400</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>12686100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,41 @@
         <v>12686100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>12710000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43652,6 +43652,41 @@
         <v>12710000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>14902200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43687,41 @@
         <v>14902200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11892300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,76 @@
         <v>11892300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>20983800</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>80298200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,41 @@
         <v>80298200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>52225700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43827,6 +43827,41 @@
         <v>52225700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>18119200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2442"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86002,6 +86002,41 @@
         <v>18119200</v>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>38042500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86037,6 +86037,41 @@
         <v>38042500</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>12740600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86072,6 +86072,41 @@
         <v>12740600</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>2107600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86107,6 +86107,41 @@
         <v>2107600</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>21463800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2446"/>
+  <dimension ref="A1:I2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86142,6 +86142,41 @@
         <v>21463800</v>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>16542500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2447"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86177,6 +86177,41 @@
         <v>16542500</v>
       </c>
     </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>1945300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2448"/>
+  <dimension ref="A1:I2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86212,6 +86212,41 @@
         <v>1945300</v>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2449" t="n">
+        <v>1369000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2449"/>
+  <dimension ref="A1:I2450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86247,6 +86247,41 @@
         <v>1369000</v>
       </c>
     </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2450" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2450" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2450" t="n">
+        <v>13371600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2450"/>
+  <dimension ref="A1:I2451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86282,6 +86282,41 @@
         <v>13371600</v>
       </c>
     </row>
+    <row r="2451">
+      <c r="A2451" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2451" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2451" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2451" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2451" t="n">
+        <v>158700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2451"/>
+  <dimension ref="A1:I2452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86317,6 +86317,41 @@
         <v>158700</v>
       </c>
     </row>
+    <row r="2452">
+      <c r="A2452" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2452" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2452" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2452" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2452" t="n">
+        <v>4505400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2452"/>
+  <dimension ref="A1:I2453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86352,6 +86352,41 @@
         <v>4505400</v>
       </c>
     </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2453" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2453" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2453" t="n">
+        <v>6237400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2453"/>
+  <dimension ref="A1:I2454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86387,6 +86387,41 @@
         <v>6237400</v>
       </c>
     </row>
+    <row r="2454">
+      <c r="A2454" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2454" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2454" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2454" t="n">
+        <v>5293000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2454"/>
+  <dimension ref="A1:I2455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86422,6 +86422,41 @@
         <v>5293000</v>
       </c>
     </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2455" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2455" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2455" t="n">
+        <v>15330800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2455"/>
+  <dimension ref="A1:I2456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86457,6 +86457,41 @@
         <v>15330800</v>
       </c>
     </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2456" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2456" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2456" t="n">
+        <v>7685500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2456"/>
+  <dimension ref="A1:I2457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86492,6 +86492,41 @@
         <v>7685500</v>
       </c>
     </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2457" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2457" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2457" t="n">
+        <v>2776200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2457"/>
+  <dimension ref="A1:I2458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86527,6 +86527,41 @@
         <v>2776200</v>
       </c>
     </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2458" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2458" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2458" t="n">
+        <v>21416800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2458"/>
+  <dimension ref="A1:I2459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86562,6 +86562,41 @@
         <v>21416800</v>
       </c>
     </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2459" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2459" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2459" t="n">
+        <v>54025300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2459"/>
+  <dimension ref="A1:I2460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86597,6 +86597,41 @@
         <v>54025300</v>
       </c>
     </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2460" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2460" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2460" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2460" t="n">
+        <v>40087700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2460"/>
+  <dimension ref="A1:I2461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86632,6 +86632,41 @@
         <v>40087700</v>
       </c>
     </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2461" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2461" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2461" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2461" t="n">
+        <v>132798300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86667,6 +86667,41 @@
         <v>132798300</v>
       </c>
     </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2462" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2462" t="n">
+        <v>57563000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86702,6 +86702,41 @@
         <v>57563000</v>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2463" t="n">
+        <v>18674400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2463"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86737,6 +86737,41 @@
         <v>18674400</v>
       </c>
     </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2464" t="n">
+        <v>71105400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86772,6 +86772,41 @@
         <v>71105400</v>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2465" t="n">
+        <v>78093200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86807,6 +86807,41 @@
         <v>78093200</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2466" t="n">
+        <v>5829600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86842,6 +86842,41 @@
         <v>5829600</v>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2467" t="n">
+        <v>102271800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86877,6 +86877,76 @@
         <v>102271800</v>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>70340100</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2469" t="n">
+        <v>113874800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86947,6 +86947,41 @@
         <v>113874800</v>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2470" t="n">
+        <v>41274100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86982,6 +86982,111 @@
         <v>41274100</v>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>6741200</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>5550600</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>4633400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87087,6 +87087,41 @@
         <v>4633400</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>3978800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87122,6 +87122,41 @@
         <v>3978800</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>4590800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0152.xlsx
+++ b/data/0152.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87157,6 +87157,111 @@
         <v>4590800</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>8453500</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>8293200</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>0152</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>DGB</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>4279000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
